--- a/results_final/ti_HL.xlsx
+++ b/results_final/ti_HL.xlsx
@@ -486,91 +486,91 @@
         <v>0.98</v>
       </c>
       <c r="D2">
-        <v>1.55528433801914</v>
+        <v>1.555537518143943</v>
       </c>
       <c r="E2">
-        <v>2.194215216927361</v>
+        <v>2.195459023351666</v>
       </c>
       <c r="F2">
-        <v>2.827421753515038</v>
+        <v>2.830872940803188</v>
       </c>
       <c r="G2">
-        <v>3.418112566141071</v>
+        <v>3.42534052304346</v>
       </c>
       <c r="H2">
-        <v>3.947585122819874</v>
+        <v>3.960342010682696</v>
       </c>
       <c r="I2">
-        <v>4.408322322946979</v>
+        <v>4.428373207691445</v>
       </c>
       <c r="J2">
-        <v>4.799168975495887</v>
+        <v>4.828127030019634</v>
       </c>
       <c r="K2">
-        <v>5.122008649631288</v>
+        <v>5.161176615309575</v>
       </c>
       <c r="L2">
-        <v>5.37993129047682</v>
+        <v>5.430169065316736</v>
       </c>
       <c r="M2">
-        <v>5.568630125833018</v>
+        <v>5.630231021774317</v>
       </c>
       <c r="N2">
-        <v>5.692832219368834</v>
+        <v>5.765338505637525</v>
       </c>
       <c r="O2">
-        <v>5.755203733307074</v>
+        <v>5.837136374553366</v>
       </c>
       <c r="P2">
-        <v>5.756275362543695</v>
+        <v>5.844757884475448</v>
       </c>
       <c r="Q2">
-        <v>5.70848431171847</v>
+        <v>5.800414334419341</v>
       </c>
       <c r="R2">
-        <v>5.633708567697528</v>
+        <v>5.727062937860904</v>
       </c>
       <c r="S2">
-        <v>5.546251166966226</v>
+        <v>5.639743751716479</v>
       </c>
       <c r="T2">
-        <v>5.455261312144373</v>
+        <v>5.548107449908807</v>
       </c>
       <c r="U2">
-        <v>5.366394985981108</v>
+        <v>5.458148760363308</v>
       </c>
       <c r="V2">
-        <v>5.282956628988394</v>
+        <v>5.373398162770581</v>
       </c>
       <c r="W2">
-        <v>5.20668511327359</v>
+        <v>5.295742448566643</v>
       </c>
       <c r="X2">
-        <v>5.138294725021632</v>
+        <v>5.225989775511186</v>
       </c>
       <c r="Y2">
-        <v>5.077846634431946</v>
+        <v>5.164257987690945</v>
       </c>
       <c r="Z2">
-        <v>5.025002633391773</v>
+        <v>5.110240195786897</v>
       </c>
       <c r="AA2">
-        <v>4.979196905175858</v>
+        <v>5.063384884311838</v>
       </c>
       <c r="AB2">
-        <v>4.939750693470645</v>
+        <v>5.023016443674727</v>
       </c>
       <c r="AC2">
-        <v>4.905947263102048</v>
+        <v>4.988414235200187</v>
       </c>
       <c r="AD2">
-        <v>4.877079371698909</v>
+        <v>4.958862911715991</v>
       </c>
       <c r="AE2">
-        <v>4.852477860032111</v>
+        <v>4.933682959501493</v>
       </c>
       <c r="AF2">
-        <v>4.835188703447748</v>
+        <v>4.915991456401172</v>
       </c>
     </row>
   </sheetData>
